--- a/chiSquare.xlsx
+++ b/chiSquare.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82D494-EE3F-4E1A-8AD5-5D542997C5A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F516FCE-D1F1-4D16-BDA8-EF3EBC319CD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,291 +386,297 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23.008003227379895</v>
+        <v>20.93802937121777</v>
       </c>
       <c r="B2">
-        <v>45.980102169683477</v>
+        <v>41.799802459877057</v>
       </c>
       <c r="C2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D2">
-        <v>0.31790701675122651</v>
+        <v>0.29331357080656101</v>
       </c>
       <c r="E2">
-        <v>0.11677768313898282</v>
+        <v>0.31988601912110437</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>45.980102169683477</v>
+        <v>41.799802459877057</v>
       </c>
       <c r="B3">
-        <v>68.952201111987051</v>
+        <v>62.661575548536348</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D3">
-        <v>0.21678164965370833</v>
+        <v>0.20717130805107395</v>
       </c>
       <c r="E3">
-        <v>2.8183943711027112E-3</v>
+        <v>0.12908364199017994</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>68.952201111987051</v>
+        <v>62.661575548536348</v>
       </c>
       <c r="B4">
-        <v>91.924300054290626</v>
+        <v>83.523348637195639</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>0.14782398987864367</v>
+        <v>0.14632787280032986</v>
       </c>
       <c r="E4">
-        <v>0.25803052028570772</v>
+        <v>0.87693957224097452</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>91.924300054290626</v>
+        <v>83.523348637195639</v>
       </c>
       <c r="B5">
-        <v>114.8963989965942</v>
+        <v>104.38512172585493</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D5">
-        <v>0.10080157623372692</v>
+        <v>0.10335333864374135</v>
       </c>
       <c r="E5">
-        <v>1.4761826941728797</v>
+        <v>2.3687479747637825</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>114.8963989965942</v>
+        <v>104.38512172585493</v>
       </c>
       <c r="B6">
-        <v>137.86849793889778</v>
+        <v>125.24689481451422</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>6.8736865914291123E-2</v>
+        <v>7.2999848930926314E-2</v>
       </c>
       <c r="E6">
-        <v>7.8992745511723018E-3</v>
+        <v>1.1095540876548471</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>137.86849793889778</v>
+        <v>125.24689481451422</v>
       </c>
       <c r="B7">
-        <v>160.84059688120135</v>
+        <v>146.10866790317351</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>4.6871853717485749E-2</v>
+        <v>5.1560772142127252E-2</v>
       </c>
       <c r="E7">
-        <v>7.598309742149552</v>
+        <v>0.11539455860400577</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>160.84059688120135</v>
+        <v>146.10866790317351</v>
       </c>
       <c r="B8">
-        <v>183.81269582350492</v>
+        <v>166.97044099183279</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>3.1962043100027482E-2</v>
+        <v>3.6418064733365348E-2</v>
       </c>
       <c r="E8">
-        <v>0.77034724124094489</v>
+        <v>9.2989195618316742E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>183.81269582350492</v>
+        <v>166.97044099183279</v>
       </c>
       <c r="B9">
-        <v>206.7847947658085</v>
+        <v>187.83221408049207</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>2.1795003143793148E-2</v>
+        <v>2.572256744464009E-2</v>
       </c>
       <c r="E9">
-        <v>0.22307916653211007</v>
+        <v>1.0827571717447706</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>206.7847947658085</v>
+        <v>187.83221408049207</v>
       </c>
       <c r="B10">
-        <v>229.75689370811207</v>
+        <v>208.69398716915134</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>1.4862071255937477E-2</v>
+        <v>1.8168194295559881E-2</v>
       </c>
       <c r="E10">
-        <v>0.30754389721168368</v>
+        <v>0.18469155955908115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>229.75689370811207</v>
+        <v>208.69398716915134</v>
       </c>
       <c r="B11">
-        <v>252.72899265041565</v>
+        <v>229.55576025781062</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>1.0134486357230292E-2</v>
+        <v>1.2832439245095471E-2</v>
       </c>
       <c r="E11">
-        <v>0.9694625240334287</v>
+        <v>5.4000263203269387E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>252.72899265041565</v>
+        <v>229.55576025781062</v>
       </c>
       <c r="B12">
-        <v>275.70109159271925</v>
+        <v>250.4175333464699</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>6.9107335011500889E-3</v>
+        <v>9.0637239067456708E-3</v>
       </c>
       <c r="E12">
-        <v>0.12002134215985379</v>
+        <v>1.0356012907431047</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>275.70109159271925</v>
+        <v>250.4175333464699</v>
       </c>
       <c r="B13">
-        <v>298.67319053502285</v>
+        <v>271.27930643512917</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4.7124477591156694E-3</v>
+        <v>6.4018297292240019E-3</v>
       </c>
       <c r="E13">
-        <v>1.7546357108713516E-2</v>
+        <v>0.9011151955276242</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>298.67319053502285</v>
+        <v>271.27930643512917</v>
       </c>
       <c r="B14">
-        <v>321.64528947732646</v>
+        <v>292.14107952378845</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>3.2134307998852125E-3</v>
+        <v>4.5216981787667178E-3</v>
       </c>
       <c r="E14">
-        <v>0.45820632146883733</v>
+        <v>1.4063215750790719</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>321.64528947732646</v>
+        <v>292.14107952378845</v>
       </c>
       <c r="B15">
-        <v>344.61738841963006</v>
+        <v>313.00285261244773</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2.1912471041564824E-3</v>
+        <v>3.1937360543234238E-3</v>
       </c>
       <c r="E15">
-        <v>1.4930251508451871</v>
+        <v>1.1752273233099082E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>344.61738841963006</v>
+        <v>313.00285261244773</v>
       </c>
       <c r="B16">
-        <v>367.58948736193366</v>
+        <v>333.864625701107</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>1.4942172931328372E-3</v>
+        <v>2.2557785994171244E-3</v>
       </c>
       <c r="E16">
-        <v>0.16346399814410037</v>
+        <v>1.3486732674196829</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>367.58948736193366</v>
+        <v>333.864625701107</v>
       </c>
       <c r="B17">
-        <v>390.56158630423727</v>
+        <v>354.72639878976628</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1.0189107905092668E-3</v>
+        <v>1.5932866721092467E-3</v>
       </c>
       <c r="E17">
-        <v>0.94467155117482038</v>
+        <v>0.10382044485753998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>390.56158630423727</v>
+        <v>354.72639878976628</v>
       </c>
       <c r="B18">
-        <v>413.53368524654087</v>
+        <v>375.58817187842556</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>6.9479800815283696E-4</v>
+        <v>1.1253597406132422E-3</v>
       </c>
       <c r="E18">
-        <v>2.4518669016493</v>
+        <v>0.67977870162945919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>SUM(E2:E18)</f>
+        <v>11.737416516933429</v>
       </c>
     </row>
   </sheetData>
@@ -679,11 +685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2882FA-2BE4-4664-B634-A35C7343B53A}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12259F4F-1847-4396-A726-F3F16B2CB9E6}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,291 +713,297 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.5591451073858913</v>
+        <v>10.980395926155069</v>
       </c>
       <c r="B2">
-        <v>17.111728744023534</v>
+        <v>21.95623779045664</v>
       </c>
       <c r="C2">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="D2">
-        <v>0.34783270344040679</v>
+        <v>0.42225670685778138</v>
       </c>
       <c r="E2">
-        <v>2.8840782931527562E-2</v>
+        <v>1.4499013173234556</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17.111728744023534</v>
+        <v>21.95623779045664</v>
       </c>
       <c r="B3">
-        <v>25.664312380661176</v>
+        <v>32.932079654758212</v>
       </c>
       <c r="C3">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>0.22680541451945233</v>
+        <v>0.24391537612187478</v>
       </c>
       <c r="E3">
-        <v>0.65566298475484719</v>
+        <v>3.9009039203605211E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>25.664312380661176</v>
+        <v>32.932079654758212</v>
       </c>
       <c r="B4">
-        <v>34.216896017298822</v>
+        <v>43.907921519059784</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>0.14788918795312123</v>
+        <v>0.14089701772034571</v>
       </c>
       <c r="E4">
-        <v>2.950575220408568</v>
+        <v>0.24681017779306544</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>34.216896017298822</v>
+        <v>43.907921519059784</v>
       </c>
       <c r="B5">
-        <v>42.769479653936465</v>
+        <v>54.883763383361355</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>9.6431612798017236E-2</v>
+        <v>8.1388758339565159E-2</v>
       </c>
       <c r="E5">
-        <v>6.8407160555593871E-2</v>
+        <v>1.593633066324377</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>42.769479653936465</v>
+        <v>54.883763383361355</v>
       </c>
       <c r="B6">
-        <v>51.322063290574107</v>
+        <v>65.859605247662927</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>6.287853815097276E-2</v>
+        <v>4.7013982916258745E-2</v>
       </c>
       <c r="E6">
-        <v>0.13177758469369696</v>
+        <v>0.1896520454409556</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>51.322063290574107</v>
+        <v>65.859605247662927</v>
       </c>
       <c r="B7">
-        <v>59.874646927211749</v>
+        <v>76.835447111964498</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>4.1000149694526658E-2</v>
+        <v>2.7157492444208699E-2</v>
       </c>
       <c r="E7">
-        <v>9.7546015663346058E-2</v>
+        <v>1.3961050814384923</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>59.874646927211749</v>
+        <v>76.835447111964498</v>
       </c>
       <c r="B8">
-        <v>68.427230563849392</v>
+        <v>87.81128897626607</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>2.6734277297246423E-2</v>
+        <v>1.5687447650860369E-2</v>
       </c>
       <c r="E8">
-        <v>0.11250417246379586</v>
+        <v>0.10981988323240578</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>68.427230563849392</v>
+        <v>87.81128897626607</v>
       </c>
       <c r="B9">
-        <v>76.979814200487027</v>
+        <v>98.787130840567642</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1.7432170075746767E-2</v>
+        <v>9.0618091601812872E-3</v>
       </c>
       <c r="E9">
-        <v>0.11766240903754129</v>
+        <v>0.46911791429984384</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>76.979814200487027</v>
+        <v>98.787130840567642</v>
       </c>
       <c r="B10">
-        <v>85.532397837124677</v>
+        <v>109.76297270486921</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1.1366701638164721E-2</v>
+        <v>5.2345280815035491E-3</v>
       </c>
       <c r="E10">
-        <v>1.1613621441238386</v>
+        <v>3.4255672706013298</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>85.532397837124677</v>
+        <v>109.76297270486921</v>
       </c>
       <c r="B11">
-        <v>94.084981473762326</v>
+        <v>120.73881456917078</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>7.4116937575554294E-3</v>
+        <v>3.0237101390801157E-3</v>
       </c>
       <c r="E11">
-        <v>2.8404511658343932</v>
+        <v>1.3544296703855285</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>94.084981473762326</v>
+        <v>120.73881456917078</v>
       </c>
       <c r="B12">
-        <v>102.63756511039998</v>
+        <v>131.71465643347236</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4.8328183587878154E-3</v>
+        <v>1.7466374929733372E-3</v>
       </c>
       <c r="E12">
-        <v>5.7833129829051085E-3</v>
+        <v>1.7466374929733373</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>102.63756511039998</v>
+        <v>131.71465643347236</v>
       </c>
       <c r="B13">
-        <v>111.19014874703763</v>
+        <v>142.69049829777393</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3.1512544976952774E-3</v>
+        <v>1.0089401402702883E-3</v>
       </c>
       <c r="E13">
-        <v>0.42059025046467974</v>
+        <v>7.9217889012739141E-5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>111.19014874703763</v>
+        <v>142.69049829777393</v>
       </c>
       <c r="B14">
-        <v>119.74273238367527</v>
+        <v>153.6663401620755</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2.0547854630595911E-3</v>
+        <v>5.8281137943268029E-4</v>
       </c>
       <c r="E14">
-        <v>1.4607106272713408E-3</v>
+        <v>0.29863237279320648</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>119.74273238367527</v>
+        <v>153.6663401620755</v>
       </c>
       <c r="B15">
-        <v>128.29531602031292</v>
+        <v>164.64218202637707</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.339829360747903E-3</v>
+        <v>3.3665932243039565E-4</v>
       </c>
       <c r="E15">
-        <v>2.0571026670860557</v>
+        <v>1.3070211492791088</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>128.29531602031292</v>
+        <v>164.64218202637707</v>
       </c>
       <c r="B16">
-        <v>136.84789965695057</v>
+        <v>175.61802389067864</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.7363997273425984E-4</v>
+        <v>1.9447029241196343E-4</v>
       </c>
       <c r="E16">
-        <v>0.87363997273425986</v>
+        <v>0.19447029241196345</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>136.84789965695057</v>
+        <v>175.61802389067864</v>
       </c>
       <c r="B17">
-        <v>145.40048329358822</v>
+        <v>186.59386575498021</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.6965970766088305E-4</v>
+        <v>1.1233520687256056E-4</v>
       </c>
       <c r="E17">
-        <v>0.56965970766088303</v>
+        <v>0.11233520687256056</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>145.40048329358822</v>
+        <v>186.59386575498021</v>
       </c>
       <c r="B18">
-        <v>153.95306693022587</v>
+        <v>197.56970761928179</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3.7144841428975173E-4</v>
+        <v>6.4890110189008333E-5</v>
       </c>
       <c r="E18">
-        <v>1.0636122828907384</v>
+        <v>13.475558963844135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>SUM(E2:E18)</f>
+        <v>27.408780162106382</v>
       </c>
     </row>
   </sheetData>
